--- a/Exps.xlsx
+++ b/Exps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huytrq/Workspace/UdG/CAD/Challenge1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657570A-F56E-124D-91ED-1EC248FDDD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0387E-1770-E340-A132-AFE57C294478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{443825CB-4737-F244-96A2-4CB906B4C862}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Exp Name</t>
   </si>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>Hair Removal</t>
+  </si>
+  <si>
+    <t>XgBoost
+n_estimators=500, learning_rate=0.05</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ColorDescriptor
+ColorCooccurrenceMatrixDescriptor
+LBPDescriptor
+GLCM</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -191,11 +207,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -539,20 +555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C31615-D04E-AE42-A13D-BA1B2555FBBD}">
   <dimension ref="B3:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="39.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="21.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -580,16 +597,16 @@
       <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="20" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -885,7 +902,7 @@
     </row>
     <row r="11" spans="2:15" ht="40" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -927,21 +944,49 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+    <row r="12" spans="2:15" ht="80" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
